--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/9/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/9/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.61494</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1614.94</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,21 +488,21 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.84592</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1845.92</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12401</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.05785</v>
+        <v>4.26003</v>
       </c>
       <c r="C6" t="n">
-        <v>2057.85</v>
+        <v>4260.03</v>
       </c>
     </row>
     <row r="7">
@@ -510,1055 +510,1055 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.24465</v>
+        <v>4.67872</v>
       </c>
       <c r="C7" t="n">
-        <v>2244.65</v>
+        <v>4678.72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186017</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.41245</v>
+        <v>5.01679</v>
       </c>
       <c r="C8" t="n">
-        <v>2412.45</v>
+        <v>5016.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216981</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.56115</v>
+        <v>5.27697</v>
       </c>
       <c r="C9" t="n">
-        <v>2561.15</v>
+        <v>5276.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247906</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>2.6424</v>
+        <v>5.4081</v>
       </c>
       <c r="C10" t="n">
-        <v>2642.4</v>
+        <v>5408.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278831</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>2.70301</v>
+        <v>5.48556</v>
       </c>
       <c r="C11" t="n">
-        <v>2703.01</v>
+        <v>5485.56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309756</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>2.76171</v>
+        <v>5.52773</v>
       </c>
       <c r="C12" t="n">
-        <v>2761.71</v>
+        <v>5527.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340681</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>2.80811</v>
+        <v>5.54542</v>
       </c>
       <c r="C13" t="n">
-        <v>2808.11</v>
+        <v>5545.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371606</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>2.84055</v>
+        <v>5.561020000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>2840.55</v>
+        <v>5561.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402531</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>2.87766</v>
+        <v>5.57386</v>
       </c>
       <c r="C15" t="n">
-        <v>2877.66</v>
+        <v>5573.86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433456</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>2.90465</v>
+        <v>5.584680000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2904.65</v>
+        <v>5584.68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464381</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>2.93641</v>
+        <v>5.595050000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>2936.41</v>
+        <v>5595.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495306</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>2.96129</v>
+        <v>5.60475</v>
       </c>
       <c r="C18" t="n">
-        <v>2961.29</v>
+        <v>5604.75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526227</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>2.98924</v>
+        <v>5.61307</v>
       </c>
       <c r="C19" t="n">
-        <v>2989.24</v>
+        <v>5613.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557152</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>3.01373</v>
+        <v>5.62136</v>
       </c>
       <c r="C20" t="n">
-        <v>3013.73</v>
+        <v>5621.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588077</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>3.03652</v>
+        <v>5.628979999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>3036.52</v>
+        <v>5628.98</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619119</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>3.06008</v>
+        <v>5.636310000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3060.08</v>
+        <v>5636.31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650296</v>
+        <v>0.650358</v>
       </c>
       <c r="B23" t="n">
-        <v>3.08222</v>
+        <v>5.64317</v>
       </c>
       <c r="C23" t="n">
-        <v>3082.22</v>
+        <v>5643.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681469</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>3.10291</v>
+        <v>5.64984</v>
       </c>
       <c r="C24" t="n">
-        <v>3102.91</v>
+        <v>5649.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712641</v>
+        <v>0.712708</v>
       </c>
       <c r="B25" t="n">
-        <v>3.12301</v>
+        <v>5.6561</v>
       </c>
       <c r="C25" t="n">
-        <v>3123.01</v>
+        <v>5656.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743818</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>3.143</v>
+        <v>5.66213</v>
       </c>
       <c r="C26" t="n">
-        <v>3143</v>
+        <v>5662.13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774991</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>3.16237</v>
+        <v>5.66791</v>
       </c>
       <c r="C27" t="n">
-        <v>3162.37</v>
+        <v>5667.91</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806168</v>
+        <v>0.80623</v>
       </c>
       <c r="B28" t="n">
-        <v>3.18103</v>
+        <v>5.673430000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3181.03</v>
+        <v>5673.43</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.83734</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>3.199</v>
+        <v>5.67872</v>
       </c>
       <c r="C29" t="n">
-        <v>3199</v>
+        <v>5678.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868513</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>3.21657</v>
+        <v>5.68384</v>
       </c>
       <c r="C30" t="n">
-        <v>3216.57</v>
+        <v>5683.84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.89969</v>
+        <v>0.899752</v>
       </c>
       <c r="B31" t="n">
-        <v>3.23368</v>
+        <v>5.68874</v>
       </c>
       <c r="C31" t="n">
-        <v>3233.68</v>
+        <v>5688.74</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930863</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>3.2505</v>
+        <v>5.69344</v>
       </c>
       <c r="C32" t="n">
-        <v>3250.5</v>
+        <v>5693.44</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962035</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>3.26702</v>
+        <v>5.69799</v>
       </c>
       <c r="C33" t="n">
-        <v>3267.02</v>
+        <v>5697.99</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993212</v>
+        <v>0.993274</v>
       </c>
       <c r="B34" t="n">
-        <v>3.28308</v>
+        <v>5.70236</v>
       </c>
       <c r="C34" t="n">
-        <v>3283.08</v>
+        <v>5702.36</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02422</v>
+        <v>1.0244</v>
       </c>
       <c r="B35" t="n">
-        <v>3.29873</v>
+        <v>5.70658</v>
       </c>
       <c r="C35" t="n">
-        <v>3298.73</v>
+        <v>5706.58</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05518</v>
+        <v>1.05537</v>
       </c>
       <c r="B36" t="n">
-        <v>3.31405</v>
+        <v>5.71063</v>
       </c>
       <c r="C36" t="n">
-        <v>3314.05</v>
+        <v>5710.63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08616</v>
+        <v>1.08634</v>
       </c>
       <c r="B37" t="n">
-        <v>3.3291</v>
+        <v>5.71452</v>
       </c>
       <c r="C37" t="n">
-        <v>3329.1</v>
+        <v>5714.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11712</v>
+        <v>1.11731</v>
       </c>
       <c r="B38" t="n">
-        <v>3.34389</v>
+        <v>5.71828</v>
       </c>
       <c r="C38" t="n">
-        <v>3343.89</v>
+        <v>5718.28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14809</v>
+        <v>1.14827</v>
       </c>
       <c r="B39" t="n">
-        <v>3.3584</v>
+        <v>5.721880000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>3358.4</v>
+        <v>5721.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17906</v>
+        <v>1.17924</v>
       </c>
       <c r="B40" t="n">
-        <v>3.37254</v>
+        <v>5.72534</v>
       </c>
       <c r="C40" t="n">
-        <v>3372.54</v>
+        <v>5725.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21002</v>
+        <v>1.21021</v>
       </c>
       <c r="B41" t="n">
-        <v>3.38652</v>
+        <v>5.72867</v>
       </c>
       <c r="C41" t="n">
-        <v>3386.52</v>
+        <v>5728.67</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24099</v>
+        <v>1.24078</v>
       </c>
       <c r="B42" t="n">
-        <v>3.40029</v>
+        <v>5.73188</v>
       </c>
       <c r="C42" t="n">
-        <v>3400.29</v>
+        <v>5731.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27196</v>
+        <v>1.27133</v>
       </c>
       <c r="B43" t="n">
-        <v>3.41369</v>
+        <v>5.734970000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>3413.69</v>
+        <v>5734.97</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30293</v>
+        <v>1.30189</v>
       </c>
       <c r="B44" t="n">
-        <v>3.42688</v>
+        <v>5.73795</v>
       </c>
       <c r="C44" t="n">
-        <v>3426.88</v>
+        <v>5737.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3339</v>
+        <v>1.33244</v>
       </c>
       <c r="B45" t="n">
-        <v>3.43989</v>
+        <v>5.74082</v>
       </c>
       <c r="C45" t="n">
-        <v>3439.89</v>
+        <v>5740.82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36486</v>
+        <v>1.3634</v>
       </c>
       <c r="B46" t="n">
-        <v>3.45263</v>
+        <v>5.74358</v>
       </c>
       <c r="C46" t="n">
-        <v>3452.63</v>
+        <v>5743.58</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39583</v>
+        <v>1.39497</v>
       </c>
       <c r="B47" t="n">
-        <v>3.4652</v>
+        <v>5.74629</v>
       </c>
       <c r="C47" t="n">
-        <v>3465.2</v>
+        <v>5746.29</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4268</v>
+        <v>1.42655</v>
       </c>
       <c r="B48" t="n">
-        <v>3.47752</v>
+        <v>5.74889</v>
       </c>
       <c r="C48" t="n">
-        <v>3477.52</v>
+        <v>5748.89</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45777</v>
+        <v>1.45779</v>
       </c>
       <c r="B49" t="n">
-        <v>3.48974</v>
+        <v>5.75137</v>
       </c>
       <c r="C49" t="n">
-        <v>3489.74</v>
+        <v>5751.37</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48874</v>
+        <v>1.48893</v>
       </c>
       <c r="B50" t="n">
-        <v>3.50175</v>
+        <v>5.75378</v>
       </c>
       <c r="C50" t="n">
-        <v>3501.75</v>
+        <v>5753.78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.5197</v>
+        <v>1.52008</v>
       </c>
       <c r="B51" t="n">
-        <v>3.51356</v>
+        <v>5.75607</v>
       </c>
       <c r="C51" t="n">
-        <v>3513.56</v>
+        <v>5756.07</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55067</v>
+        <v>1.55123</v>
       </c>
       <c r="B52" t="n">
-        <v>3.5252</v>
+        <v>5.75825</v>
       </c>
       <c r="C52" t="n">
-        <v>3525.2</v>
+        <v>5758.25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58164</v>
+        <v>1.58238</v>
       </c>
       <c r="B53" t="n">
-        <v>3.53666</v>
+        <v>5.76031</v>
       </c>
       <c r="C53" t="n">
-        <v>3536.66</v>
+        <v>5760.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61261</v>
+        <v>1.61352</v>
       </c>
       <c r="B54" t="n">
-        <v>3.54792</v>
+        <v>5.76229</v>
       </c>
       <c r="C54" t="n">
-        <v>3547.92</v>
+        <v>5762.29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64357</v>
+        <v>1.64467</v>
       </c>
       <c r="B55" t="n">
-        <v>3.55905</v>
+        <v>5.7642</v>
       </c>
       <c r="C55" t="n">
-        <v>3559.05</v>
+        <v>5764.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67454</v>
+        <v>1.67561</v>
       </c>
       <c r="B56" t="n">
-        <v>3.56999</v>
+        <v>5.766</v>
       </c>
       <c r="C56" t="n">
-        <v>3569.99</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70551</v>
+        <v>1.70633</v>
       </c>
       <c r="B57" t="n">
-        <v>3.58083</v>
+        <v>5.76771</v>
       </c>
       <c r="C57" t="n">
-        <v>3580.83</v>
+        <v>5767.71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73647</v>
+        <v>1.73705</v>
       </c>
       <c r="B58" t="n">
-        <v>3.59147</v>
+        <v>5.769310000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>3591.47</v>
+        <v>5769.31</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76745</v>
+        <v>1.76777</v>
       </c>
       <c r="B59" t="n">
-        <v>3.60198</v>
+        <v>5.7708</v>
       </c>
       <c r="C59" t="n">
-        <v>3601.98</v>
+        <v>5770.8</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79841</v>
+        <v>1.79849</v>
       </c>
       <c r="B60" t="n">
-        <v>3.61233</v>
+        <v>5.772220000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>3612.33</v>
+        <v>5772.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82938</v>
+        <v>1.82921</v>
       </c>
       <c r="B61" t="n">
-        <v>3.62258</v>
+        <v>5.773569999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>3622.58</v>
+        <v>5773.57</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86035</v>
+        <v>1.85993</v>
       </c>
       <c r="B62" t="n">
-        <v>3.63266</v>
+        <v>5.77484</v>
       </c>
       <c r="C62" t="n">
-        <v>3632.66</v>
+        <v>5774.84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89131</v>
+        <v>1.89065</v>
       </c>
       <c r="B63" t="n">
-        <v>3.64264</v>
+        <v>5.77604</v>
       </c>
       <c r="C63" t="n">
-        <v>3642.64</v>
+        <v>5776.04</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92228</v>
+        <v>1.92157</v>
       </c>
       <c r="B64" t="n">
-        <v>3.65251</v>
+        <v>5.77717</v>
       </c>
       <c r="C64" t="n">
-        <v>3652.51</v>
+        <v>5777.17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95325</v>
+        <v>1.9529</v>
       </c>
       <c r="B65" t="n">
-        <v>3.66222</v>
+        <v>5.77823</v>
       </c>
       <c r="C65" t="n">
-        <v>3662.22</v>
+        <v>5778.23</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98422</v>
+        <v>1.98424</v>
       </c>
       <c r="B66" t="n">
-        <v>3.67179</v>
+        <v>5.77922</v>
       </c>
       <c r="C66" t="n">
-        <v>3671.79</v>
+        <v>5779.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0153</v>
+        <v>2.01552</v>
       </c>
       <c r="B67" t="n">
-        <v>3.68129</v>
+        <v>5.78012</v>
       </c>
       <c r="C67" t="n">
-        <v>3681.29</v>
+        <v>5780.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04624</v>
+        <v>2.04642</v>
       </c>
       <c r="B68" t="n">
-        <v>3.69067</v>
+        <v>5.780939999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>3690.67</v>
+        <v>5780.94</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.0768</v>
+        <v>2.07731</v>
       </c>
       <c r="B69" t="n">
-        <v>3.69988</v>
+        <v>5.78166</v>
       </c>
       <c r="C69" t="n">
-        <v>3699.88</v>
+        <v>5781.66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10735</v>
+        <v>2.10821</v>
       </c>
       <c r="B70" t="n">
-        <v>3.70902</v>
+        <v>5.78227</v>
       </c>
       <c r="C70" t="n">
-        <v>3709.02</v>
+        <v>5782.27</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.1379</v>
+        <v>2.13911</v>
       </c>
       <c r="B71" t="n">
-        <v>3.71802</v>
+        <v>5.78275</v>
       </c>
       <c r="C71" t="n">
-        <v>3718.02</v>
+        <v>5782.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16846</v>
+        <v>2.17001</v>
       </c>
       <c r="B72" t="n">
-        <v>3.72693</v>
+        <v>5.783180000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>3726.93</v>
+        <v>5783.18</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19901</v>
+        <v>2.2009</v>
       </c>
       <c r="B73" t="n">
-        <v>3.73575</v>
+        <v>5.78352</v>
       </c>
       <c r="C73" t="n">
-        <v>3735.75</v>
+        <v>5783.52</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22957</v>
+        <v>2.2318</v>
       </c>
       <c r="B74" t="n">
-        <v>3.74444</v>
+        <v>5.7838</v>
       </c>
       <c r="C74" t="n">
-        <v>3744.44</v>
+        <v>5783.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26012</v>
+        <v>2.2627</v>
       </c>
       <c r="B75" t="n">
-        <v>3.75301</v>
+        <v>5.784</v>
       </c>
       <c r="C75" t="n">
-        <v>3753.01</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29068</v>
+        <v>2.29359</v>
       </c>
       <c r="B76" t="n">
-        <v>3.76153</v>
+        <v>5.784149999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>3761.53</v>
+        <v>5784.15</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32123</v>
+        <v>2.32449</v>
       </c>
       <c r="B77" t="n">
-        <v>3.76995</v>
+        <v>5.78423</v>
       </c>
       <c r="C77" t="n">
-        <v>3769.95</v>
+        <v>5784.23</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35179</v>
+        <v>2.35538</v>
       </c>
       <c r="B78" t="n">
-        <v>3.77823</v>
+        <v>5.78424</v>
       </c>
       <c r="C78" t="n">
-        <v>3778.23</v>
+        <v>5784.24</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38234</v>
+        <v>2.38628</v>
       </c>
       <c r="B79" t="n">
-        <v>3.78642</v>
+        <v>5.78418</v>
       </c>
       <c r="C79" t="n">
-        <v>3786.42</v>
+        <v>5784.18</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.4129</v>
+        <v>2.41718</v>
       </c>
       <c r="B80" t="n">
-        <v>3.79453</v>
+        <v>5.784050000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3794.53</v>
+        <v>5784.05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44434</v>
+        <v>2.44904</v>
       </c>
       <c r="B81" t="n">
-        <v>3.80276</v>
+        <v>5.78385</v>
       </c>
       <c r="C81" t="n">
-        <v>3802.76</v>
+        <v>5783.85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47591</v>
+        <v>2.48023</v>
       </c>
       <c r="B82" t="n">
-        <v>3.81089</v>
+        <v>5.783600000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>3810.89</v>
+        <v>5783.6</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50749</v>
+        <v>2.51132</v>
       </c>
       <c r="B83" t="n">
-        <v>3.81895</v>
+        <v>5.78326</v>
       </c>
       <c r="C83" t="n">
-        <v>3818.95</v>
+        <v>5783.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53906</v>
+        <v>2.5424</v>
       </c>
       <c r="B84" t="n">
-        <v>3.82695</v>
+        <v>5.782859999999999</v>
       </c>
       <c r="C84" t="n">
-        <v>3826.95</v>
+        <v>5782.86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57064</v>
+        <v>2.57349</v>
       </c>
       <c r="B85" t="n">
-        <v>3.83483</v>
+        <v>5.78238</v>
       </c>
       <c r="C85" t="n">
-        <v>3834.83</v>
+        <v>5782.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60221</v>
+        <v>2.60457</v>
       </c>
       <c r="B86" t="n">
-        <v>3.8426</v>
+        <v>5.78184</v>
       </c>
       <c r="C86" t="n">
-        <v>3842.6</v>
+        <v>5781.84</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63378</v>
+        <v>2.63566</v>
       </c>
       <c r="B87" t="n">
-        <v>3.85029</v>
+        <v>5.78122</v>
       </c>
       <c r="C87" t="n">
-        <v>3850.29</v>
+        <v>5781.22</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66536</v>
+        <v>2.66675</v>
       </c>
       <c r="B88" t="n">
-        <v>3.85789</v>
+        <v>5.78053</v>
       </c>
       <c r="C88" t="n">
-        <v>3857.89</v>
+        <v>5780.53</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69693</v>
+        <v>2.69783</v>
       </c>
       <c r="B89" t="n">
-        <v>3.8654</v>
+        <v>5.77976</v>
       </c>
       <c r="C89" t="n">
-        <v>3865.4</v>
+        <v>5779.76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.7285</v>
+        <v>2.72892</v>
       </c>
       <c r="B90" t="n">
-        <v>3.87283</v>
+        <v>5.77892</v>
       </c>
       <c r="C90" t="n">
-        <v>3872.83</v>
+        <v>5778.92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76008</v>
+        <v>2.76</v>
       </c>
       <c r="B91" t="n">
-        <v>3.88022</v>
+        <v>5.778020000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>3880.22</v>
+        <v>5778.02</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79165</v>
+        <v>2.79109</v>
       </c>
       <c r="B92" t="n">
-        <v>3.88749</v>
+        <v>5.77702</v>
       </c>
       <c r="C92" t="n">
-        <v>3887.49</v>
+        <v>5777.02</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82322</v>
+        <v>2.82217</v>
       </c>
       <c r="B93" t="n">
-        <v>3.89468</v>
+        <v>5.77597</v>
       </c>
       <c r="C93" t="n">
-        <v>3894.68</v>
+        <v>5775.97</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.8548</v>
+        <v>2.85326</v>
       </c>
       <c r="B94" t="n">
-        <v>3.90182</v>
+        <v>5.774850000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3901.82</v>
+        <v>5774.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88637</v>
+        <v>2.884</v>
       </c>
       <c r="B95" t="n">
-        <v>3.90885</v>
+        <v>5.77365</v>
       </c>
       <c r="C95" t="n">
-        <v>3908.85</v>
+        <v>5773.65</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91794</v>
+        <v>2.91418</v>
       </c>
       <c r="B96" t="n">
-        <v>3.91584</v>
+        <v>5.772390000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>3915.84</v>
+        <v>5772.39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94951</v>
+        <v>2.94435</v>
       </c>
       <c r="B97" t="n">
-        <v>3.92276</v>
+        <v>5.77106</v>
       </c>
       <c r="C97" t="n">
-        <v>3922.76</v>
+        <v>5771.06</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98109</v>
+        <v>2.97452</v>
       </c>
       <c r="B98" t="n">
-        <v>3.9296</v>
+        <v>5.76969</v>
       </c>
       <c r="C98" t="n">
-        <v>3929.6</v>
+        <v>5769.69</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01266</v>
+        <v>3.00469</v>
       </c>
       <c r="B99" t="n">
-        <v>3.93638</v>
+        <v>5.768260000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>3936.38</v>
+        <v>5768.26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.04423</v>
+        <v>3.03486</v>
       </c>
       <c r="B100" t="n">
-        <v>3.94309</v>
+        <v>5.76675</v>
       </c>
       <c r="C100" t="n">
-        <v>3943.09</v>
+        <v>5766.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07581</v>
+        <v>3.06503</v>
       </c>
       <c r="B101" t="n">
-        <v>3.9497</v>
+        <v>5.76518</v>
       </c>
       <c r="C101" t="n">
-        <v>3949.7</v>
+        <v>5765.18</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10738</v>
+        <v>3.0952</v>
       </c>
       <c r="B102" t="n">
-        <v>3.95623</v>
+        <v>5.76351</v>
       </c>
       <c r="C102" t="n">
-        <v>3956.23</v>
+        <v>5763.51</v>
       </c>
     </row>
   </sheetData>
